--- a/3a) Anwendung/StockMarket - Neuroph/Training Sets/TrainingData_450_21012014_29102015.xlsx
+++ b/3a) Anwendung/StockMarket - Neuroph/Training Sets/TrainingData_450_21012014_29102015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\soco15\3a) Anwendung\Datensätze\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\soco15\3a) Anwendung\Stockmarket - Neuroph\Training Sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1097,7 +1097,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1105,13 +1105,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1395,7 +1490,7 @@
   <dimension ref="A1:E450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1523,121 +1618,121 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="10" t="s">
         <v>17</v>
       </c>
     </row>

--- a/3a) Anwendung/StockMarket - Neuroph/Training Sets/TrainingData_450_21012014_29102015.xlsx
+++ b/3a) Anwendung/StockMarket - Neuroph/Training Sets/TrainingData_450_21012014_29102015.xlsx
@@ -1097,7 +1097,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1105,108 +1105,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1490,7 +1396,7 @@
   <dimension ref="A1:E450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,7 +1506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1621,118 +1527,118 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
